--- a/public/templates/bepMeNaInvoice.xlsx
+++ b/public/templates/bepMeNaInvoice.xlsx
@@ -15,10 +15,10 @@
     <sheet name="FINANCE CHARGE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ColumnTitle1">InvoiceDetails[[#Headers],[Thực đơn]]</definedName>
+    <definedName name="ColumnTitle1">InvoiceDetails[[#Headers],[Sản phẩm]]</definedName>
     <definedName name="ColumnTitleRegion1..B12.1">'FINANCE CHARGE'!#REF!</definedName>
     <definedName name="ColumnTitleRegion2..E12.1">'FINANCE CHARGE'!$D$7</definedName>
-    <definedName name="Company_Name">'FINANCE CHARGE'!$B$7</definedName>
+    <definedName name="Company_Name">'FINANCE CHARGE'!$B$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'FINANCE CHARGE'!$12:$12</definedName>
     <definedName name="RowTitleRegion1..E5">'FINANCE CHARGE'!$D$3</definedName>
     <definedName name="TitleRegion1..D14">'FINANCE CHARGE'!#REF!</definedName>
@@ -28,19 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
-  <si>
-    <t>Bếp mẹ Na</t>
-  </si>
-  <si>
-    <t>S209 Vinhomes Ocean Park</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>0986.800.903</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>{bill_code}</t>
   </si>
@@ -63,9 +51,6 @@
     <t>{customer_info}</t>
   </si>
   <si>
-    <t>Thực đơn</t>
-  </si>
-  <si>
     <t>Số lượng</t>
   </si>
   <si>
@@ -102,9 +87,6 @@
     <t>{total_to_pay}</t>
   </si>
   <si>
-    <t>Chúc bạn ngon miệng!</t>
-  </si>
-  <si>
     <t>(Liên giao khách hàng)</t>
   </si>
   <si>
@@ -118,6 +100,21 @@
   </si>
   <si>
     <t>{discount_percent}</t>
+  </si>
+  <si>
+    <t>{company_name}</t>
+  </si>
+  <si>
+    <t>{company_address}</t>
+  </si>
+  <si>
+    <t>{company_phone}</t>
+  </si>
+  <si>
+    <t>Sản phẩm</t>
+  </si>
+  <si>
+    <t>Xin hẹn gặp lại!</t>
   </si>
 </sst>
 </file>
@@ -465,22 +462,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="4" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="4" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -529,19 +526,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right/>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -587,21 +584,19 @@
         </patternFill>
       </fill>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -648,21 +643,19 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -709,19 +702,19 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -804,15 +797,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>561976</xdr:colOff>
+      <xdr:colOff>38101</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2806174</xdr:colOff>
+      <xdr:colOff>2095500</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>340584</xdr:rowOff>
+      <xdr:rowOff>259238</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -841,8 +834,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="742951" y="0"/>
-          <a:ext cx="2244198" cy="2236059"/>
+          <a:off x="219076" y="104775"/>
+          <a:ext cx="2057399" cy="2049938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -858,7 +851,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="InvoiceDetails" displayName="InvoiceDetails" ref="B12:E14" totalsRowCount="1" headerRowDxfId="9" totalsRowDxfId="8">
   <autoFilter ref="B12:E13"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Thực đơn" dataDxfId="7" totalsRowDxfId="6"/>
+    <tableColumn id="1" name="Sản phẩm" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" name="Số lượng" dataDxfId="5" totalsRowDxfId="4" dataCellStyle="Comma"/>
     <tableColumn id="3" name="Đơn giá" totalsRowLabel="Tổng cộng" dataDxfId="3" totalsRowDxfId="2" dataCellStyle="Currency"/>
     <tableColumn id="4" name="Thành tiền" totalsRowLabel="{total_before_tax}" dataDxfId="1" totalsRowDxfId="0" dataCellStyle="Currency"/>
@@ -1106,7 +1099,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1121,146 +1114,143 @@
   <sheetData>
     <row r="1" spans="2:5" ht="56.85" customHeight="1" x14ac:dyDescent="0.45">
       <c r="D1" s="21" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" s="21"/>
     </row>
     <row r="2" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="8" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="1"/>
       <c r="D3" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
     </row>
-    <row r="7" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
-        <v>0</v>
-      </c>
+    <row r="7" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E7" s="22"/>
     </row>
-    <row r="8" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="23"/>
+    <row r="8" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="B8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="24"/>
+        <v>25</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="24"/>
+        <v>26</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="26"/>
     </row>
     <row r="11" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="5"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="25"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="28"/>
     </row>
     <row r="12" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="15" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="17" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="str">
-        <f>"Cảm ơn bạn đã lựa chọn Bếp mẹ Na"</f>
-        <v>Cảm ơn bạn đã lựa chọn Bếp mẹ Na</v>
+        <f>"Cảm ơn bạn đã lựa chọn chúng tôi"</f>
+        <v>Cảm ơn bạn đã lựa chọn chúng tôi</v>
       </c>
       <c r="C17" s="20"/>
       <c r="D17" s="20"/>
@@ -1268,7 +1258,7 @@
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
@@ -1283,14 +1273,13 @@
     <mergeCell ref="D8:E11"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
-  <dataValidations count="23">
+  <dataValidations count="22">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Add company Logo in this cell and enter invoicing Company Name in cell below" sqref="B1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create an Invoice with Finance Charge in this worksheet. Enter customer and shipping details, descriptions, and amounts. Total due is automatically calculated " sqref="A1"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Title of this worksheet is in this cell. Enter Invoice details in cells D3 through E5" sqref="D1:E1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoice Company Name, Street Address, City, State, Zip Code, and Phone number in cells below" sqref="B7"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoice Company Name, Street Address, City, State, Zip Code, and Phone number in cells below" sqref="B8"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company slogan in this cell" sqref="C1"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company Street Address in this cell" sqref="B8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company City, State, and Zip Code in this cell" sqref="B9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company Street Address in this cell" sqref="B9"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company Phone and Fax numbers within the brackets in this cell" sqref="B10"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoicing company email address in this cell" sqref="B6"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter invoice Date in cell at right" sqref="D4"/>

--- a/public/templates/bepMeNaInvoice.xlsx
+++ b/public/templates/bepMeNaInvoice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\bep_me_na\public\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\thuchi-system\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1299,7 +1299,7 @@
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.4" right="0.4" top="0.27" bottom="0.4" header="0.25" footer="0.25"/>
-  <pageSetup scale="76" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <pageSetup fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter differentFirst="1">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/public/templates/bepMeNaInvoice.xlsx
+++ b/public/templates/bepMeNaInvoice.xlsx
@@ -42,9 +42,6 @@
     <t>Hóa đơn số:</t>
   </si>
   <si>
-    <t>Ngày</t>
-  </si>
-  <si>
     <t>Khách hàng:</t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t>(Liên giao khách hàng)</t>
   </si>
   <si>
-    <t>Lập đơn:</t>
-  </si>
-  <si>
     <t>{user_id}</t>
   </si>
   <si>
@@ -115,6 +109,12 @@
   </si>
   <si>
     <t>Xin hẹn gặp lại!</t>
+  </si>
+  <si>
+    <t>Ngày tạo:</t>
+  </si>
+  <si>
+    <t>Nhân viên:</t>
   </si>
 </sst>
 </file>
@@ -1099,7 +1099,7 @@
   <dimension ref="B1:E18"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1120,7 +1120,7 @@
     </row>
     <row r="2" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E2" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1135,7 +1135,7 @@
     <row r="4" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="1"/>
       <c r="D4" s="3" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>1</v>
@@ -1144,10 +1144,10 @@
     <row r="5" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="1"/>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -1155,29 +1155,29 @@
     </row>
     <row r="7" spans="2:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D7" s="22" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E7" s="22"/>
     </row>
     <row r="8" spans="2:5" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B8" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E8" s="24"/>
     </row>
     <row r="9" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="26"/>
     </row>
     <row r="10" spans="2:5" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="26"/>
@@ -1189,62 +1189,62 @@
     </row>
     <row r="12" spans="2:5" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="E12" s="11" t="s">
         <v>8</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:5" s="9" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="D13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="E13" s="14" t="s">
         <v>12</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="14" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="12"/>
       <c r="C15" s="17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
       <c r="D16" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1258,7 +1258,7 @@
     </row>
     <row r="18" spans="2:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C18" s="20"/>
       <c r="D18" s="20"/>
